--- a/web/files/Data.xlsx
+++ b/web/files/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22B048F-16AF-4C1F-8B5C-6FE7E8CC49E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factura" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>NVARCHAR_DESCRIPCION</t>
   </si>
@@ -72,12 +73,15 @@
   </si>
   <si>
     <t>Prieba</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +113,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -121,6 +124,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,45 +136,45 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -203,35 +209,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:I1048576"/>
-  <tableColumns count="9">
-    <tableColumn id="9" name="INT_ID_FACTURA" dataDxfId="15"/>
-    <tableColumn id="1" name="NVARCHAR_DESCRIPCION" dataDxfId="14"/>
-    <tableColumn id="2" name="INT_VALOR_FACTURA" dataDxfId="13"/>
-    <tableColumn id="3" name="DATETIME_FECHA_VENCIMIENTO" dataDxfId="12"/>
-    <tableColumn id="4" name="DATETIME_FECHA_GENERACION" dataDxfId="11"/>
-    <tableColumn id="5" name="NVARCHAR_ESTADO" dataDxfId="10"/>
-    <tableColumn id="6" name="NVARCHAR_TIPO_CARTERA" dataDxfId="9"/>
-    <tableColumn id="7" name="INT_TIEMPO_CULMINACION" dataDxfId="8"/>
-    <tableColumn id="8" name="INT_CUOTAS" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:K1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:K1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="INT_ID_FACTURA" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NVARCHAR_DESCRIPCION" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="INT_VALOR_FACTURA" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DATETIME_FECHA_VENCIMIENTO" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DATETIME_FECHA_GENERACION" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NVARCHAR_ESTADO" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NVARCHAR_TIPO_CARTERA" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="INT_TIEMPO_CULMINACION" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="INT_CUOTAS" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{DA50C9F2-7E9A-4A14-87C5-AAC4EC24F254}" name="DATETIME_FECHA_IMPRESION" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{2F945EE2-3A16-4705-B6CB-B730A7D5622E}" name="NVARCHAR_NOMBRE_DOCUMENTO" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:H42" totalsRowShown="0">
-  <autoFilter ref="A1:H42"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="INT_ID_FACTURA"/>
-    <tableColumn id="2" name="NVARCHAR_NOMBRE" dataDxfId="6"/>
-    <tableColumn id="3" name="NVARCHAR_TIPO" dataDxfId="5"/>
-    <tableColumn id="4" name="NVARCHAR_TIPOENTIDAD" dataDxfId="4"/>
-    <tableColumn id="5" name="INT_TELEFONO" dataDxfId="3"/>
-    <tableColumn id="6" name="NVARCHAR_CORREO" dataDxfId="2"/>
-    <tableColumn id="7" name="DATETIME_FECHA_IMPRESION" dataDxfId="1"/>
-    <tableColumn id="8" name="NVARCHAR_NOMBRE_DOCUMENTO" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A1:F42" totalsRowShown="0">
+  <autoFilter ref="A1:F42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="INT_ID_FACTURA"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NVARCHAR_NOMBRE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NVARCHAR_TIPO" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NVARCHAR_TIPOENTIDAD" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="INT_TELEFONO" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="NVARCHAR_CORREO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -313,6 +319,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -348,6 +371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,80 +563,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>43738</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>43739</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43742</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -608,74 +664,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>12313</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>43738</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -689,7 +731,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Factura!$A$2:$A$1048576</xm:f>
           </x14:formula1>

--- a/web/files/Data.xlsx
+++ b/web/files/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22B048F-16AF-4C1F-8B5C-6FE7E8CC49E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33278D76-DBE6-4EA1-87C9-A52D1B2E0D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4200" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factura" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t>NVARCHAR_DESCRIPCION</t>
   </si>
@@ -51,9 +51,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>NVARCHAR_NOMBRE</t>
-  </si>
-  <si>
     <t>NVARCHAR_TIPO</t>
   </si>
   <si>
@@ -75,17 +72,152 @@
     <t>Prieba</t>
   </si>
   <si>
-    <t>prueba</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Prueba1</t>
+  </si>
+  <si>
+    <t>Prueba2</t>
+  </si>
+  <si>
+    <t>Prueba0</t>
+  </si>
+  <si>
+    <t>Prueba3</t>
+  </si>
+  <si>
+    <t>Prueba4</t>
+  </si>
+  <si>
+    <t>Prueba5</t>
+  </si>
+  <si>
+    <t>Prueba6</t>
+  </si>
+  <si>
+    <t>Prueba7</t>
+  </si>
+  <si>
+    <t>Prueba8</t>
+  </si>
+  <si>
+    <t>Prueba9</t>
+  </si>
+  <si>
+    <t>Prueba10</t>
+  </si>
+  <si>
+    <t>Prueba11</t>
+  </si>
+  <si>
+    <t>Prueba12</t>
+  </si>
+  <si>
+    <t>Prueba13</t>
+  </si>
+  <si>
+    <t>Prueba14</t>
+  </si>
+  <si>
+    <t>Prueba15</t>
+  </si>
+  <si>
+    <t>Prueba16</t>
+  </si>
+  <si>
+    <t>Prueba17</t>
+  </si>
+  <si>
+    <t>Prueba18</t>
+  </si>
+  <si>
+    <t>Prueba19</t>
+  </si>
+  <si>
+    <t>Prueba20</t>
+  </si>
+  <si>
+    <t>Prueba21</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,10 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -127,19 +258,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -151,38 +313,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -213,16 +348,16 @@
   <autoFilter ref="A1:K1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="INT_ID_FACTURA" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NVARCHAR_DESCRIPCION" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="INT_VALOR_FACTURA" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DATETIME_FECHA_VENCIMIENTO" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DATETIME_FECHA_GENERACION" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NVARCHAR_ESTADO" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NVARCHAR_TIPO_CARTERA" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="INT_TIEMPO_CULMINACION" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="INT_CUOTAS" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{DA50C9F2-7E9A-4A14-87C5-AAC4EC24F254}" name="DATETIME_FECHA_IMPRESION" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{2F945EE2-3A16-4705-B6CB-B730A7D5622E}" name="NVARCHAR_NOMBRE_DOCUMENTO" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NVARCHAR_DESCRIPCION" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="INT_VALOR_FACTURA" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DATETIME_FECHA_VENCIMIENTO" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DATETIME_FECHA_GENERACION" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NVARCHAR_ESTADO" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NVARCHAR_TIPO_CARTERA" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="INT_TIEMPO_CULMINACION" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="INT_CUOTAS" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{DA50C9F2-7E9A-4A14-87C5-AAC4EC24F254}" name="DATETIME_FECHA_IMPRESION" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{2F945EE2-3A16-4705-B6CB-B730A7D5622E}" name="NVARCHAR_NOMBRE_DOCUMENTO" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -233,11 +368,11 @@
   <autoFilter ref="A1:F42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="INT_ID_FACTURA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NVARCHAR_NOMBRE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NVARCHAR_TIPO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Prueba" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NVARCHAR_TIPO" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NVARCHAR_TIPOENTIDAD" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="INT_TELEFONO" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="NVARCHAR_CORREO" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="INT_TELEFONO" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="NVARCHAR_CORREO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,98 +699,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43738</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43739</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43742</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43739</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43740</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43743</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43740</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43741</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43744</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43741</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43742</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5.6666666666666696</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43745</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43742</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43743</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7.1666666666666696</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43746</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43743</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43744</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.6666666666666696</v>
+      </c>
+      <c r="J7" s="4">
+        <v>43747</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43744</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43745</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6">
+        <v>10.1666666666667</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43748</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43745</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43746</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6">
+        <v>11.6666666666667</v>
+      </c>
+      <c r="J9" s="4">
+        <v>43749</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43746</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43747</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>13.1666666666667</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43750</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6">
+        <v>11000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43747</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43748</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="6">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6">
+        <v>14.6666666666667</v>
+      </c>
+      <c r="J11" s="4">
+        <v>43751</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43748</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43749</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="6">
+        <v>12</v>
+      </c>
+      <c r="I12" s="6">
+        <v>16.1666666666667</v>
+      </c>
+      <c r="J12" s="4">
+        <v>43752</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43749</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43750</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6">
+        <v>17.6666666666667</v>
+      </c>
+      <c r="J13" s="4">
+        <v>43753</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6">
+        <v>14000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43750</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43751</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="6">
+        <v>14</v>
+      </c>
+      <c r="I14" s="6">
+        <v>19.1666666666667</v>
+      </c>
+      <c r="J14" s="4">
+        <v>43754</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43751</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43752</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="6">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6">
+        <v>20.6666666666667</v>
+      </c>
+      <c r="J15" s="4">
+        <v>43755</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6">
+        <v>16000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43752</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43753</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="6">
+        <v>16</v>
+      </c>
+      <c r="I16" s="6">
+        <v>22.1666666666667</v>
+      </c>
+      <c r="J16" s="4">
+        <v>43756</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6">
+        <v>17000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43753</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43754</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43738</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43739</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43742</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="I17" s="6">
+        <v>23.6666666666667</v>
+      </c>
+      <c r="J17" s="4">
+        <v>43757</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6">
+        <v>18000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43754</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43755</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="6">
+        <v>18</v>
+      </c>
+      <c r="I18" s="6">
+        <v>25.1666666666667</v>
+      </c>
+      <c r="J18" s="4">
+        <v>43758</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6">
+        <v>19000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43755</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43756</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="6">
         <v>19</v>
       </c>
+      <c r="I19" s="6">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="J19" s="4">
+        <v>43759</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43756</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43757</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="6">
+        <v>20</v>
+      </c>
+      <c r="I20" s="6">
+        <v>28.1666666666667</v>
+      </c>
+      <c r="J20" s="4">
+        <v>43760</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6">
+        <v>21000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43757</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43758</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="6">
+        <v>21</v>
+      </c>
+      <c r="I21" s="6">
+        <v>29.6666666666667</v>
+      </c>
+      <c r="J21" s="4">
+        <v>43761</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6">
+        <v>22000</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43758</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43759</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="6">
+        <v>22</v>
+      </c>
+      <c r="I22" s="6">
+        <v>31.1666666666667</v>
+      </c>
+      <c r="J22" s="4">
+        <v>43762</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -665,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +1513,7 @@
     <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -686,19 +1522,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,17 +1548,178 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7">
         <v>12313</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7">
+        <v>234234324</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2323</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7">
+        <v>78072996.666666701</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7">
+        <v>78068001.666666701</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7">
+        <v>78063006.666666701</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7">
+        <v>78058011.666666701</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7">
+        <v>78053016.666666701</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7">
+        <v>78048021.666666701</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">
